--- a/Misc/test1.xlsx
+++ b/Misc/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulbrower/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079309A4-F208-244C-A990-E8E21D456280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6DD27-B77D-6947-BE9D-93B6061DF41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="920" windowWidth="36420" windowHeight="23420" xr2:uid="{373D6A00-3200-DE44-A7F9-C03781F912CD}"/>
+    <workbookView xWindow="940" yWindow="920" windowWidth="40580" windowHeight="24680" xr2:uid="{373D6A00-3200-DE44-A7F9-C03781F912CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>DESC</t>
   </si>
@@ -49,12 +49,27 @@
   <si>
     <t>DURATION</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +89,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -89,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -97,17 +118,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9D8629-808C-0947-9997-52736D3488E4}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +544,7 @@
     <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,546 +557,792 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="6">
         <f>MIN(B:C)</f>
         <v>44958</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="7">
         <f>DATE(YEAR(E1),MONTH(E1)+1,DAY(E1))</f>
         <v>44986</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="7">
         <f t="shared" ref="G1:X1" si="0">DATE(YEAR(F1),MONTH(F1)+1,DAY(F1))</f>
         <v>45017</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="7">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="7">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="7">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="7">
         <f t="shared" si="0"/>
         <v>45139</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="7">
         <f t="shared" si="0"/>
         <v>45170</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="7">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="7">
         <f t="shared" si="0"/>
         <v>45231</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="7">
         <f t="shared" si="0"/>
         <v>45261</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="7">
         <f t="shared" si="0"/>
         <v>45292</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="7">
         <f t="shared" si="0"/>
         <v>45323</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="7">
         <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="7">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="7">
         <f t="shared" si="0"/>
         <v>45413</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="7">
         <f t="shared" si="0"/>
         <v>45444</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="7">
         <f t="shared" si="0"/>
         <v>45474</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="7">
         <f t="shared" si="0"/>
         <v>45505</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="7">
         <f t="shared" si="0"/>
         <v>45536</v>
       </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
         <v>45078</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>45474</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <f>DATEDIF(B2,C2,"m")+1</f>
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f>IF(AND(E$1&gt;=$B2, E$1&lt;=$C2),(DATEDIF($B2,E$1,"m")+1)/$D2,"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f t="shared" ref="F2:X6" si="1">IF(AND(F$1&gt;=$B2, F$1&lt;=$C2),(DATEDIF($B2,F$1,"m")+1)/$D2,"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H2" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I2" s="4">
+      <c r="E2" s="9" t="str">
+        <f>IF(AND(E$1&gt;=$B2, E$1&lt;=$C2),(1+E3)/$D2,"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f t="shared" ref="F2:AA2" si="1">IF(AND(F$1&gt;=$B2, F$1&lt;=$C2),(1+F3)/$D2,"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I2" s="9">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="17">
+        <f t="shared" si="1"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="K2" s="9">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" si="1"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" si="1"/>
+      <c r="L2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA2" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="W2" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X2" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>45200</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="4">
         <v>45536</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="2">DATEDIF(B3,C3,"m")+1</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D10" si="2">DATEDIF(B4,C4,"m")+1</f>
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:T6" si="3">IF(AND(E$1&gt;=$B3, E$1&lt;=$C3),(DATEDIF($B3,E$1,"m")+1)/$D3,"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L3" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="R3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="V3" s="4">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="W3" s="4">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="X3" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="E4" s="9" t="str">
+        <f>IF(AND(E$1&gt;=$B4, E$1&lt;=$C4),(1+E5)/$D4,"")</f>
+        <v/>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f t="shared" ref="F4:AA4" si="3">IF(AND(F$1&gt;=$B4, F$1&lt;=$C4),(1+F5)/$D4,"")</f>
+        <v/>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA4" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
+    <row r="5" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="15"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>45108</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="4">
         <v>45200</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
+      <c r="E6" s="9" t="str">
+        <f>IF(AND(E$1&gt;=$B6, E$1&lt;=$C6),(1+E7)/$D6,"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="shared" ref="F6:AA6" si="4">IF(AND(F$1&gt;=$B6, F$1&lt;=$C6),(1+F7)/$D6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X4" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA6" s="9" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    <row r="7" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="15"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
         <v>44958</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="4">
         <v>45383</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X5" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" s="9">
+        <f>IF(AND(E$1&gt;=$B8, E$1&lt;=$C8),(1+E9)/$D8,"")</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ref="F8:AA8" si="5">IF(AND(F$1&gt;=$B8, F$1&lt;=$C8),(1+F9)/$D8,"")</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA8" s="9" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+    <row r="9" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>45047</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C10" s="4">
         <v>45383</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D10" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E10" s="9" t="str">
+        <f>IF(AND(E$1&gt;=$B10, E$1&lt;=$C10),(1+E11)/$D10,"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="shared" ref="F10:AA10" si="6">IF(AND(F$1&gt;=$B10, F$1&lt;=$C10),(1+F11)/$D10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA10" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="15"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
